--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-04-24T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.139</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.139</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -294,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -400,63 +406,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -473,52 +487,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -536,27 +550,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
+++ b/ig/main/CodeSystem-TRE-R290-RoleAdmTechSanitaireSocial.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
